--- a/DONE/PADILLA, JANE ZARAGOZA.xlsx
+++ b/DONE/PADILLA, JANE ZARAGOZA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -595,9 +595,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -607,17 +604,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,27 +822,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1063,27 +1063,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1148,7 +1148,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1666,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1709,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1784,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1970,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2036,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2160,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2291,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2334,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2400,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2456,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,25 +2552,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2582,25 +2582,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K71" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2932,9 +2932,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,62 +2956,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3037,18 +3037,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3105,7 +3105,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4479,13 +4479,15 @@
         <v>44958</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4497,13 +4499,15 @@
         <v>44986</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -5388,19 +5392,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -5409,7 +5413,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5417,8 +5421,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                         OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5434,9 +5438,9 @@
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,62 +5462,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5539,18 +5543,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/PADILLA, JANE ZARAGOZA.xlsx
+++ b/DONE/PADILLA, JANE ZARAGOZA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5652A0-5297-4FD8-AC04-6D32FE01155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
-    <sheet name="2108 LEAVE CREDITS" sheetId="5" r:id="rId2"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId2"/>
     <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId3"/>
     <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -25,12 +26,23 @@
     <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2108 LEAVE CREDITS'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -222,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -598,17 +610,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -618,6 +627,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1148,7 +1160,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1203,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1267,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1327,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1393,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1456,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1554,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1613,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1678,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1721,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1796,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1982,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2048,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2106,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2172,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2228,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2303,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2346,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2412,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2468,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,25 +2564,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2582,25 +2594,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2907,7 +2919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2917,7 +2929,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2925,34 +2937,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
+      <pane ySplit="3696" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2964,16 +2976,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2982,16 +2994,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3002,18 +3014,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3021,7 +3033,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3034,24 +3046,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3110,7 +3122,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3132,7 +3144,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>43101</v>
       </c>
@@ -3152,7 +3164,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3172,7 +3184,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3192,7 +3204,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3212,7 +3224,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3232,7 +3244,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3252,7 +3264,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3272,7 +3284,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3292,7 +3304,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3312,7 +3324,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3332,7 +3344,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3382,7 +3394,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>49</v>
       </c>
@@ -3400,7 +3412,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3420,7 +3432,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3440,7 +3452,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3460,7 +3472,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3480,7 +3492,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3500,7 +3512,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3520,7 +3532,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3540,7 +3552,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3560,7 +3572,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3580,7 +3592,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3600,7 +3612,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3620,7 +3632,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3644,7 +3656,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3674,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3682,7 +3694,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3702,7 +3714,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3722,7 +3734,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3742,7 +3754,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3762,7 +3774,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3782,7 +3794,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3802,7 +3814,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3822,7 +3834,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3842,7 +3854,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3862,7 +3874,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3906,7 +3918,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>52</v>
       </c>
@@ -3924,7 +3936,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3944,7 +3956,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3964,7 +3976,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -3984,7 +3996,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4004,7 +4016,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4024,7 +4036,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4044,7 +4056,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4064,7 +4076,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4084,7 +4096,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4104,7 +4116,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4124,7 +4136,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4144,7 +4156,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4168,7 +4180,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>53</v>
       </c>
@@ -4186,7 +4198,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4206,7 +4218,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4226,7 +4238,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4246,7 +4258,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4266,7 +4278,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4286,7 +4298,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4310,7 +4322,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4330,7 +4342,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4350,7 +4362,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4370,7 +4382,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4390,7 +4402,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4410,7 +4422,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>57</v>
       </c>
@@ -4454,7 +4466,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4474,7 +4486,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4494,7 +4506,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4514,7 +4526,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4532,7 +4544,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4550,7 +4562,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4568,7 +4580,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45108</v>
       </c>
@@ -4586,7 +4598,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45139</v>
       </c>
@@ -4604,7 +4616,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45170</v>
       </c>
@@ -4622,7 +4634,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45200</v>
       </c>
@@ -4640,7 +4652,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45231</v>
       </c>
@@ -4658,7 +4670,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45261</v>
       </c>
@@ -4676,7 +4688,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45292</v>
       </c>
@@ -4694,7 +4706,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45323</v>
       </c>
@@ -4712,7 +4724,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45352</v>
       </c>
@@ -4730,7 +4742,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45383</v>
       </c>
@@ -4748,7 +4760,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45413</v>
       </c>
@@ -4766,7 +4778,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4782,7 +4794,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4798,7 +4810,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4814,7 +4826,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4830,7 +4842,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4846,7 +4858,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4862,7 +4874,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4878,7 +4890,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4894,7 +4906,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4910,7 +4922,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4926,7 +4938,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4942,7 +4954,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4958,7 +4970,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4974,7 +4986,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4990,7 +5002,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5006,7 +5018,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5022,7 +5034,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5038,7 +5050,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5054,7 +5066,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5070,7 +5082,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5086,7 +5098,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5102,7 +5114,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5118,7 +5130,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5134,7 +5146,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5150,7 +5162,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5166,7 +5178,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5182,7 +5194,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5198,7 +5210,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5214,7 +5226,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5230,7 +5242,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5246,7 +5258,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5262,7 +5274,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5278,7 +5290,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5294,7 +5306,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5310,7 +5322,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5326,7 +5338,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5342,7 +5354,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5358,7 +5370,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5374,7 +5386,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -5392,23 +5404,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5431,34 +5443,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
       <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5470,16 +5482,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5488,16 +5500,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5508,18 +5520,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5527,7 +5539,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5540,24 +5552,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5616,7 +5628,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>53</v>
       </c>
@@ -5634,7 +5646,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44805</v>
       </c>
@@ -5656,7 +5668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5669,7 +5681,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5682,7 +5694,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5695,7 +5707,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5708,7 +5720,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
@@ -5721,7 +5733,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5734,7 +5746,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5747,7 +5759,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5760,7 +5772,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5773,7 +5785,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5786,7 +5798,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5799,7 +5811,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5812,7 +5824,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5825,7 +5837,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5838,7 +5850,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5851,7 +5863,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5864,7 +5876,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5877,7 +5889,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5890,7 +5902,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5903,7 +5915,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5916,7 +5928,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5929,7 +5941,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5942,7 +5954,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5955,7 +5967,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5968,7 +5980,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5981,7 +5993,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5994,7 +6006,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6007,7 +6019,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6023,7 +6035,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6039,7 +6051,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6055,7 +6067,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6071,7 +6083,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6087,7 +6099,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6103,7 +6115,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6119,7 +6131,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6135,7 +6147,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6151,7 +6163,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6167,7 +6179,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6183,7 +6195,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6199,7 +6211,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6215,7 +6227,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6231,7 +6243,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6247,7 +6259,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6263,7 +6275,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6279,7 +6291,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6295,7 +6307,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6311,7 +6323,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6327,7 +6339,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6343,7 +6355,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6359,7 +6371,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6375,7 +6387,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6391,7 +6403,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6407,7 +6419,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6423,7 +6435,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6439,7 +6451,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6455,7 +6467,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6471,7 +6483,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6487,7 +6499,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6503,7 +6515,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6519,7 +6531,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="15"/>
       <c r="C71" s="42"/>
@@ -6550,10 +6562,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6576,28 +6588,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -6610,7 +6622,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>27.082999999999998</v>
       </c>
@@ -6663,17 +6675,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6694,7 +6706,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6721,7 +6733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6773,7 +6785,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6799,7 +6811,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6825,7 +6837,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6877,7 +6889,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6903,7 +6915,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6923,7 +6935,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6943,7 +6955,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6963,7 +6975,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7005,7 +7017,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7026,7 +7038,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7047,7 +7059,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7068,7 +7080,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7089,7 +7101,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7110,7 +7122,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7131,7 +7143,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7194,7 +7206,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7236,7 +7248,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7257,7 +7269,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7299,7 +7311,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7320,7 +7332,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7341,7 +7353,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7362,7 +7374,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7383,7 +7395,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7392,7 +7404,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7401,7 +7413,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7410,7 +7422,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7419,7 +7431,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7428,7 +7440,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7437,7 +7449,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7446,7 +7458,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7455,7 +7467,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7464,7 +7476,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7473,7 +7485,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7482,7 +7494,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7491,7 +7503,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7500,7 +7512,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7509,7 +7521,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7518,7 +7530,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7527,7 +7539,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7536,7 +7548,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7545,7 +7557,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7554,7 +7566,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7563,7 +7575,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7572,7 +7584,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7581,7 +7593,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7590,7 +7602,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7599,7 +7611,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7608,7 +7620,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7617,7 +7629,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7626,7 +7638,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7635,7 +7647,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7644,7 +7656,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
